--- a/src/main/java/files/DSDiemRenLuyen-LopD21CQCN01-N-HK1-NH2023-2024.xlsx
+++ b/src/main/java/files/DSDiemRenLuyen-LopD21CQCN01-N-HK1-NH2023-2024.xlsx
@@ -26,7 +26,7 @@
     <t>Độc lập - Tự do - Hạnh phúc</t>
   </si>
   <si>
-    <t>Tp. Hồ Chí Minh, ngày 2 tháng 6 năm 2024</t>
+    <t>Tp. Hồ Chí Minh, ngày 4 tháng 6 năm 2024</t>
   </si>
   <si>
     <t>TỔNG HỢP KẾT QUẢ RÈN LUYỆN CỦA SINH VIÊN</t>
